--- a/source_data/Master_Data_Table_for_TDA2014_30_jan_2015.xlsx
+++ b/source_data/Master_Data_Table_for_TDA2014_30_jan_2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="28005" windowHeight="13620"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="28000" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="usdol 2013" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="266">
   <si>
     <t>Country</t>
   </si>
@@ -591,9 +591,6 @@
     <t>Viet Nam</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>2008-2009</t>
   </si>
   <si>
@@ -699,9 +696,6 @@
     <t>Total Child Population</t>
   </si>
   <si>
-    <t>N.A.</t>
-  </si>
-  <si>
     <t>2010-11</t>
   </si>
   <si>
@@ -823,6 +817,9 @@
   </si>
   <si>
     <t>Encuesta Permanente de Hogares de Propósitos Múltiples (EPHPM)</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -830,9 +827,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
@@ -998,20 +995,20 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1286,6 +1283,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1304,9 +1322,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1315,24 +1330,6 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1690,130 +1687,130 @@
   </sheetPr>
   <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="11" customWidth="1"/>
     <col min="3" max="3" width="11" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="14" customWidth="1"/>
     <col min="9" max="9" width="14" style="8" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="10" customWidth="1"/>
     <col min="11" max="11" width="13" style="10" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" style="12" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="80" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" style="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="37"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="15"/>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89" t="s">
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
       <c r="R1" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="S1" s="79"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="93"/>
+      <c r="B2" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="88" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="89" t="s">
         <v>222</v>
       </c>
-      <c r="S1" s="79"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="98" t="s">
+      <c r="H2" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="96" t="s">
+      <c r="P2" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="96" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="92" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="92" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="92" t="s">
-        <v>194</v>
-      </c>
-      <c r="L2" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="100" t="s">
+      <c r="Q2" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="97" t="s">
+      <c r="S2" s="86" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86"/>
+    <row r="3" spans="1:19" ht="29.25" customHeight="1">
+      <c r="A3" s="93"/>
       <c r="B3" s="37"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
       <c r="L3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1823,21 +1820,21 @@
       <c r="N3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="100"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="97"/>
-    </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="91"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="86"/>
+    </row>
+    <row r="4" spans="1:19" s="6" customFormat="1">
       <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>183</v>
@@ -1858,7 +1855,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="50" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M4" s="46" t="s">
         <v>16</v>
@@ -1867,7 +1864,7 @@
         <v>41.8</v>
       </c>
       <c r="O4" s="50" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P4" s="51" t="s">
         <v>17</v>
@@ -1878,12 +1875,12 @@
       <c r="R4" s="85"/>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="13" customFormat="1">
       <c r="A5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="16">
         <v>2010</v>
@@ -1933,7 +1930,7 @@
       <c r="R5" s="75"/>
       <c r="S5" s="81"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="6" customFormat="1">
       <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
@@ -1960,12 +1957,12 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="6" customFormat="1">
       <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="16">
         <v>2001</v>
@@ -2013,7 +2010,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="6" customFormat="1">
       <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
@@ -2040,15 +2037,15 @@
         <v>78.7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="6" customFormat="1">
       <c r="A9" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>183</v>
@@ -2069,7 +2066,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M9" s="46" t="s">
         <v>16</v>
@@ -2078,7 +2075,7 @@
         <v>98.9</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P9" s="51" t="s">
         <v>17</v>
@@ -2093,12 +2090,12 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="6" customFormat="1">
       <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="16">
         <v>2010</v>
@@ -2118,12 +2115,8 @@
       <c r="H10" s="19">
         <v>30493.874500000002</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>189</v>
-      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="20">
         <v>2010</v>
@@ -2150,12 +2143,12 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="6" customFormat="1">
       <c r="A11" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="16">
         <v>2005</v>
@@ -2209,7 +2202,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="6" customFormat="1">
       <c r="A12" s="21" t="s">
         <v>25</v>
       </c>
@@ -2232,12 +2225,12 @@
       <c r="R12" s="76"/>
       <c r="S12" s="81"/>
     </row>
-    <row r="13" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="7" customFormat="1">
       <c r="A13" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>27</v>
@@ -2291,7 +2284,7 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="6" customFormat="1">
       <c r="A14" s="21" t="s">
         <v>29</v>
       </c>
@@ -2318,12 +2311,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="6" customFormat="1">
       <c r="A15" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="47">
         <v>2012</v>
@@ -2371,12 +2364,12 @@
         <v>103.3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="40" customFormat="1">
       <c r="A16" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="16">
         <v>2011</v>
@@ -2396,15 +2389,9 @@
       <c r="H16" s="27">
         <v>6933.95</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>189</v>
-      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="16">
         <v>2011</v>
       </c>
@@ -2430,15 +2417,15 @@
         <v>116.1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="6" customFormat="1">
       <c r="A17" s="44" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D17" s="47" t="s">
         <v>35</v>
@@ -2459,7 +2446,7 @@
       <c r="J17" s="47"/>
       <c r="K17" s="47"/>
       <c r="L17" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M17" s="47" t="s">
         <v>16</v>
@@ -2468,7 +2455,7 @@
         <v>71</v>
       </c>
       <c r="O17" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P17" s="47" t="s">
         <v>17</v>
@@ -2483,12 +2470,12 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="6" customFormat="1">
       <c r="A18" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="16">
         <v>2010</v>
@@ -2508,12 +2495,8 @@
       <c r="H18" s="27">
         <v>6338.11</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>189</v>
-      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="20">
         <v>2010</v>
@@ -2540,12 +2523,12 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="6" customFormat="1">
       <c r="A19" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C19" s="16">
         <v>2009</v>
@@ -2599,18 +2582,18 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="6" customFormat="1">
       <c r="A20" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" s="16">
         <v>2006</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>16</v>
@@ -2648,7 +2631,7 @@
       <c r="R20" s="76"/>
       <c r="S20" s="81"/>
     </row>
-    <row r="21" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="6" customFormat="1">
       <c r="A21" s="21" t="s">
         <v>41</v>
       </c>
@@ -2675,12 +2658,12 @@
         <v>94.7</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="13" customFormat="1">
       <c r="A22" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C22" s="16">
         <v>2011</v>
@@ -2730,7 +2713,7 @@
       <c r="R22" s="76"/>
       <c r="S22" s="81"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="29" t="s">
         <v>44</v>
       </c>
@@ -2752,7 +2735,7 @@
       <c r="Q23" s="32"/>
       <c r="R23" s="76"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="29" t="s">
         <v>45</v>
       </c>
@@ -2779,12 +2762,12 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="40" customFormat="1">
       <c r="A25" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="16">
         <v>2010</v>
@@ -2804,15 +2787,9 @@
       <c r="H25" s="27">
         <v>2116751.7999999998</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>189</v>
-      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="16">
         <v>2010</v>
       </c>
@@ -2838,12 +2815,12 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="6" customFormat="1">
       <c r="A26" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>184</v>
@@ -2863,12 +2840,8 @@
       <c r="H26" s="27">
         <v>633126.11</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>189</v>
-      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="20" t="s">
         <v>184</v>
@@ -2895,18 +2868,18 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="6" customFormat="1">
       <c r="A27" s="44" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C27" s="47">
         <v>2012</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>16</v>
@@ -2954,12 +2927,12 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="40" customFormat="1">
       <c r="A28" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" s="16">
         <v>2011</v>
@@ -2970,24 +2943,16 @@
       <c r="E28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="25" t="s">
-        <v>225</v>
-      </c>
+      <c r="F28" s="25"/>
       <c r="G28" s="26">
         <v>56.2</v>
       </c>
       <c r="H28" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>189</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="16">
         <v>2011</v>
       </c>
@@ -3013,12 +2978,12 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="6" customFormat="1">
       <c r="A29" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>53</v>
@@ -3072,12 +3037,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="6" customFormat="1">
       <c r="A30" s="44" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C30" s="47">
         <v>2010</v>
@@ -3125,12 +3090,12 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="6" customFormat="1">
       <c r="A31" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C31" s="47">
         <v>2010</v>
@@ -3178,18 +3143,18 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="6" customFormat="1">
       <c r="A32" s="44" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C32" s="47">
         <v>2012</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E32" s="46" t="s">
         <v>16</v>
@@ -3237,7 +3202,7 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="6" customFormat="1">
       <c r="A33" s="21" t="s">
         <v>57</v>
       </c>
@@ -3260,7 +3225,7 @@
       <c r="R33" s="76"/>
       <c r="S33" s="81"/>
     </row>
-    <row r="34" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="6" customFormat="1">
       <c r="A34" s="21" t="s">
         <v>58</v>
       </c>
@@ -3283,18 +3248,18 @@
       <c r="R34" s="76"/>
       <c r="S34" s="81"/>
     </row>
-    <row r="35" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="40" customFormat="1">
       <c r="A35" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C35" s="24">
         <v>2012</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>16</v>
@@ -3342,12 +3307,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="6" customFormat="1">
       <c r="A36" s="44" t="s">
         <v>60</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C36" s="47">
         <v>2012</v>
@@ -3395,15 +3360,15 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="6" customFormat="1">
       <c r="A37" s="44" t="s">
         <v>61</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D37" s="47" t="s">
         <v>35</v>
@@ -3424,7 +3389,7 @@
       <c r="J37" s="48"/>
       <c r="K37" s="48"/>
       <c r="L37" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M37" s="46" t="s">
         <v>16</v>
@@ -3433,7 +3398,7 @@
         <v>90.2</v>
       </c>
       <c r="O37" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P37" s="55" t="s">
         <v>17</v>
@@ -3448,12 +3413,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="6" customFormat="1">
       <c r="A38" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C38" s="16">
         <v>2010</v>
@@ -3473,12 +3438,8 @@
       <c r="H38" s="27">
         <v>3327805.9</v>
       </c>
-      <c r="I38" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>189</v>
-      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="18"/>
       <c r="K38" s="18"/>
       <c r="L38" s="20">
         <v>2010</v>
@@ -3505,7 +3466,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="6" customFormat="1">
       <c r="A39" s="21" t="s">
         <v>63</v>
       </c>
@@ -3532,7 +3493,7 @@
         <v>102.7</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="6" customFormat="1">
       <c r="A40" s="44" t="s">
         <v>64</v>
       </c>
@@ -3585,15 +3546,15 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="6" customFormat="1">
       <c r="A41" s="44" t="s">
         <v>65</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D41" s="47" t="s">
         <v>35</v>
@@ -3614,7 +3575,7 @@
       <c r="J41" s="48"/>
       <c r="K41" s="48"/>
       <c r="L41" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M41" s="46" t="s">
         <v>16</v>
@@ -3623,7 +3584,7 @@
         <v>63.5</v>
       </c>
       <c r="O41" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P41" s="51" t="s">
         <v>17</v>
@@ -3638,7 +3599,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="6" customFormat="1">
       <c r="A42" s="21" t="s">
         <v>66</v>
       </c>
@@ -3665,18 +3626,18 @@
         <v>93.2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="6" customFormat="1">
       <c r="A43" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C43" s="16">
         <v>2006</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>16</v>
@@ -3718,7 +3679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="6" customFormat="1">
       <c r="A44" s="21" t="s">
         <v>68</v>
       </c>
@@ -3745,12 +3706,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="40" customFormat="1">
       <c r="A45" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C45" s="16">
         <v>2011</v>
@@ -3804,12 +3765,12 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="6" customFormat="1">
       <c r="A46" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C46" s="16">
         <v>2007</v>
@@ -3863,12 +3824,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="40" customFormat="1">
       <c r="A47" s="43" t="s">
         <v>71</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C47" s="24">
         <v>2011</v>
@@ -3922,12 +3883,12 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="6" customFormat="1">
       <c r="A48" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C48" s="16">
         <v>2005</v>
@@ -3975,12 +3936,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="13" customFormat="1">
       <c r="A49" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C49" s="16">
         <v>2011</v>
@@ -4034,7 +3995,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="29" t="s">
         <v>76</v>
       </c>
@@ -4061,7 +4022,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="29" t="s">
         <v>77</v>
       </c>
@@ -4088,12 +4049,12 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C52" s="30">
         <v>2011</v>
@@ -4113,12 +4074,8 @@
       <c r="H52" s="33">
         <v>5545319</v>
       </c>
-      <c r="I52" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="J52" s="32" t="s">
-        <v>189</v>
-      </c>
+      <c r="I52" s="30"/>
+      <c r="J52" s="32"/>
       <c r="K52" s="32"/>
       <c r="L52" s="20">
         <v>2011</v>
@@ -4145,7 +4102,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53" s="29" t="s">
         <v>78</v>
       </c>
@@ -4167,7 +4124,7 @@
       <c r="Q53" s="32"/>
       <c r="R53" s="76"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" s="29" t="s">
         <v>79</v>
       </c>
@@ -4194,12 +4151,12 @@
         <v>103.6</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="53" t="s">
         <v>80</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C55" s="56">
         <v>2012</v>
@@ -4242,18 +4199,18 @@
       </c>
       <c r="R55" s="76"/>
     </row>
-    <row r="56" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" s="6" customFormat="1">
       <c r="A56" s="21" t="s">
         <v>81</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>16</v>
@@ -4295,18 +4252,18 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" s="6" customFormat="1">
       <c r="A57" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C57" s="16">
         <v>2005</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>16</v>
@@ -4348,18 +4305,18 @@
         <v>108.1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" s="6" customFormat="1">
       <c r="A58" s="21" t="s">
         <v>84</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C58" s="16">
         <v>2006</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>16</v>
@@ -4401,7 +4358,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" s="6" customFormat="1">
       <c r="A59" s="21" t="s">
         <v>85</v>
       </c>
@@ -4423,7 +4380,7 @@
       <c r="Q59" s="18"/>
       <c r="S59" s="81"/>
     </row>
-    <row r="60" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" s="6" customFormat="1">
       <c r="A60" s="21" t="s">
         <v>86</v>
       </c>
@@ -4450,18 +4407,18 @@
         <v>111.5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" s="6" customFormat="1">
       <c r="A61" s="44" t="s">
         <v>87</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C61" s="47">
         <v>2012</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E61" s="58" t="s">
         <v>17</v>
@@ -4509,12 +4466,12 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" s="40" customFormat="1">
       <c r="A62" s="44" t="s">
         <v>88</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C62" s="47">
         <v>2012</v>
@@ -4562,18 +4519,18 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" s="6" customFormat="1">
       <c r="A63" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C63" s="16">
         <v>2006</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E63" s="25" t="s">
         <v>16</v>
@@ -4615,18 +4572,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" s="6" customFormat="1">
       <c r="A64" s="21" t="s">
         <v>90</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>91</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>16</v>
@@ -4668,12 +4625,12 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="65" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" s="6" customFormat="1">
       <c r="A65" s="44" t="s">
         <v>92</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C65" s="47">
         <v>2012</v>
@@ -4717,7 +4674,7 @@
       <c r="R65" s="76"/>
       <c r="S65" s="81"/>
     </row>
-    <row r="66" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" s="6" customFormat="1">
       <c r="A66" s="21" t="s">
         <v>93</v>
       </c>
@@ -4740,18 +4697,18 @@
       <c r="R66" s="76"/>
       <c r="S66" s="81"/>
     </row>
-    <row r="67" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" s="6" customFormat="1">
       <c r="A67" s="44" t="s">
         <v>94</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C67" s="47">
         <v>2013</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E67" s="59" t="s">
         <v>16</v>
@@ -4799,18 +4756,18 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" s="6" customFormat="1">
       <c r="A68" s="44" t="s">
         <v>95</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E68" s="58" t="s">
         <v>16</v>
@@ -4834,7 +4791,7 @@
         <v>33.1</v>
       </c>
       <c r="L68" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M68" s="46" t="s">
         <v>16</v>
@@ -4843,7 +4800,7 @@
         <v>90.7</v>
       </c>
       <c r="O68" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P68" s="51" t="s">
         <v>17</v>
@@ -4858,12 +4815,12 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" s="6" customFormat="1">
       <c r="A69" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>186</v>
@@ -4917,12 +4874,12 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="70" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" s="40" customFormat="1">
       <c r="A70" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C70" s="16">
         <v>2011</v>
@@ -4942,15 +4899,9 @@
       <c r="H70" s="27">
         <v>454330</v>
       </c>
-      <c r="I70" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="K70" s="16" t="s">
-        <v>189</v>
-      </c>
+      <c r="I70" s="24"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
       <c r="L70" s="16">
         <v>2011</v>
       </c>
@@ -4976,12 +4927,12 @@
         <v>66.3</v>
       </c>
     </row>
-    <row r="71" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" s="6" customFormat="1">
       <c r="A71" s="44" t="s">
         <v>98</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C71" s="47">
         <v>2011</v>
@@ -5029,12 +4980,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" s="6" customFormat="1">
       <c r="A72" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C72" s="16">
         <v>2007</v>
@@ -5088,18 +5039,18 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" s="6" customFormat="1">
       <c r="A73" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C73" s="16">
         <v>2006</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>16</v>
@@ -5141,12 +5092,12 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" s="6" customFormat="1">
       <c r="A74" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C74" s="16">
         <v>2000</v>
@@ -5194,7 +5145,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" s="6" customFormat="1">
       <c r="A75" s="21" t="s">
         <v>102</v>
       </c>
@@ -5221,7 +5172,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" s="6" customFormat="1">
       <c r="A76" s="21" t="s">
         <v>103</v>
       </c>
@@ -5244,12 +5195,12 @@
       <c r="R76" s="76"/>
       <c r="S76" s="81"/>
     </row>
-    <row r="77" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" s="6" customFormat="1">
       <c r="A77" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C77" s="16">
         <v>2006</v>
@@ -5297,18 +5248,18 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" s="40" customFormat="1">
       <c r="A78" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B78" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>219</v>
       </c>
       <c r="C78" s="16">
         <v>2010</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>16</v>
@@ -5356,7 +5307,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" s="6" customFormat="1">
       <c r="A79" s="21" t="s">
         <v>105</v>
       </c>
@@ -5383,12 +5334,12 @@
         <v>86.2</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" s="6" customFormat="1">
       <c r="A80" s="21" t="s">
         <v>106</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C80" s="16">
         <v>2000</v>
@@ -5436,12 +5387,12 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" s="6" customFormat="1">
       <c r="A81" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C81" s="16">
         <v>2010</v>
@@ -5495,18 +5446,18 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="82" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" s="6" customFormat="1">
       <c r="A82" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C82" s="47">
         <v>2011</v>
       </c>
       <c r="D82" s="47" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E82" s="46" t="s">
         <v>16</v>
@@ -5548,12 +5499,12 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" s="6" customFormat="1">
       <c r="A83" s="21" t="s">
         <v>110</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C83" s="16">
         <v>2007</v>
@@ -5607,18 +5558,18 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" s="40" customFormat="1">
       <c r="A84" s="21" t="s">
         <v>111</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>184</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>16</v>
@@ -5632,15 +5583,9 @@
       <c r="H84" s="27">
         <v>885332.8</v>
       </c>
-      <c r="I84" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="J84" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="K84" s="16" t="s">
-        <v>189</v>
-      </c>
+      <c r="I84" s="24"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
       <c r="L84" s="16" t="s">
         <v>184</v>
       </c>
@@ -5666,12 +5611,12 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="85" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" s="6" customFormat="1">
       <c r="A85" s="21" t="s">
         <v>112</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C85" s="16">
         <v>2009</v>
@@ -5691,12 +5636,8 @@
       <c r="H85" s="27">
         <v>2364.2094000000002</v>
       </c>
-      <c r="I85" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="J85" s="18" t="s">
-        <v>189</v>
-      </c>
+      <c r="I85" s="24"/>
+      <c r="J85" s="18"/>
       <c r="K85" s="18"/>
       <c r="L85" s="20">
         <v>2009</v>
@@ -5723,15 +5664,15 @@
         <v>109.9</v>
       </c>
     </row>
-    <row r="86" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" s="6" customFormat="1">
       <c r="A86" s="44" t="s">
         <v>113</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D86" s="47" t="s">
         <v>35</v>
@@ -5752,7 +5693,7 @@
       <c r="J86" s="48"/>
       <c r="K86" s="48"/>
       <c r="L86" s="50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M86" s="46" t="s">
         <v>16</v>
@@ -5761,7 +5702,7 @@
         <v>46</v>
       </c>
       <c r="O86" s="50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P86" s="51" t="s">
         <v>17</v>
@@ -5776,18 +5717,18 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="87" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" s="6" customFormat="1">
       <c r="A87" s="21" t="s">
         <v>114</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C87" s="16">
         <v>2007</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>16</v>
@@ -5829,7 +5770,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="88" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" s="6" customFormat="1">
       <c r="A88" s="21" t="s">
         <v>115</v>
       </c>
@@ -5856,18 +5797,18 @@
         <v>68.7</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" s="13" customFormat="1">
       <c r="A89" s="21" t="s">
         <v>116</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C89" s="16">
         <v>2011</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>16</v>
@@ -5915,18 +5856,18 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" s="6" customFormat="1">
       <c r="A90" s="21" t="s">
         <v>187</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C90" s="16">
         <v>2009</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>16</v>
@@ -5974,18 +5915,18 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="91" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" s="40" customFormat="1">
       <c r="A91" s="21" t="s">
         <v>117</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>16</v>
@@ -6009,7 +5950,7 @@
         <v>2.4895781305042863</v>
       </c>
       <c r="L91" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M91" s="17" t="s">
         <v>16</v>
@@ -6018,7 +5959,7 @@
         <v>87.626294726924954</v>
       </c>
       <c r="O91" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P91" s="22" t="s">
         <v>17</v>
@@ -6033,12 +5974,12 @@
         <v>130.19999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" s="6" customFormat="1">
       <c r="A92" s="21" t="s">
         <v>118</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C92" s="16">
         <v>2005</v>
@@ -6086,7 +6027,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" s="6" customFormat="1">
       <c r="A93" s="21" t="s">
         <v>119</v>
       </c>
@@ -6113,12 +6054,12 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="94" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" s="6" customFormat="1">
       <c r="A94" s="21" t="s">
         <v>120</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>49</v>
@@ -6166,12 +6107,12 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="95" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" s="6" customFormat="1">
       <c r="A95" s="21" t="s">
         <v>121</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C95" s="16">
         <v>2008</v>
@@ -6219,7 +6160,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="96" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" s="6" customFormat="1">
       <c r="A96" s="21" t="s">
         <v>122</v>
       </c>
@@ -6246,12 +6187,12 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="97" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" s="40" customFormat="1">
       <c r="A97" s="21" t="s">
         <v>123</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C97" s="16">
         <v>2008</v>
@@ -6305,12 +6246,12 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" s="6" customFormat="1">
       <c r="A98" s="44" t="s">
         <v>124</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C98" s="47">
         <v>2010</v>
@@ -6364,12 +6305,12 @@
         <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" s="6" customFormat="1">
       <c r="A99" s="44" t="s">
         <v>125</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C99" s="47">
         <v>2012</v>
@@ -6417,12 +6358,12 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="100" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" s="40" customFormat="1">
       <c r="A100" s="21" t="s">
         <v>126</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C100" s="16">
         <v>2011</v>
@@ -6442,15 +6383,9 @@
       <c r="H100" s="27">
         <v>13924739</v>
       </c>
-      <c r="I100" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J100" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="K100" s="16" t="s">
-        <v>189</v>
-      </c>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
       <c r="L100" s="20">
         <v>2011</v>
       </c>
@@ -6476,7 +6411,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" s="6" customFormat="1">
       <c r="A101" s="21" t="s">
         <v>127</v>
       </c>
@@ -6503,7 +6438,7 @@
         <v>115.4</v>
       </c>
     </row>
-    <row r="102" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" s="6" customFormat="1">
       <c r="A102" s="21" t="s">
         <v>128</v>
       </c>
@@ -6526,7 +6461,7 @@
       <c r="R102" s="76"/>
       <c r="S102" s="81"/>
     </row>
-    <row r="103" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" s="6" customFormat="1">
       <c r="A103" s="21" t="s">
         <v>129</v>
       </c>
@@ -6553,12 +6488,12 @@
         <v>103.7</v>
       </c>
     </row>
-    <row r="104" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" s="6" customFormat="1">
       <c r="A104" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>184</v>
@@ -6612,18 +6547,18 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" s="40" customFormat="1">
       <c r="A105" s="44" t="s">
         <v>131</v>
       </c>
       <c r="B105" s="44" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C105" s="47">
         <v>2012</v>
       </c>
       <c r="D105" s="47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E105" s="46" t="s">
         <v>16</v>
@@ -6671,7 +6606,7 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="106" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" s="6" customFormat="1">
       <c r="A106" s="21" t="s">
         <v>132</v>
       </c>
@@ -6698,18 +6633,18 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="107" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" s="6" customFormat="1">
       <c r="A107" s="21" t="s">
         <v>133</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C107" s="16">
         <v>2005</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>37</v>
@@ -6757,12 +6692,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" s="40" customFormat="1">
       <c r="A108" s="21" t="s">
         <v>134</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C108" s="16">
         <v>2011</v>
@@ -6782,15 +6717,9 @@
       <c r="H108" s="27">
         <v>1014688</v>
       </c>
-      <c r="I108" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J108" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="K108" s="16" t="s">
-        <v>189</v>
-      </c>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
       <c r="L108" s="16">
         <v>2011</v>
       </c>
@@ -6816,12 +6745,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="109" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" s="6" customFormat="1">
       <c r="A109" s="44" t="s">
         <v>135</v>
       </c>
       <c r="B109" s="44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C109" s="47">
         <v>2011</v>
@@ -6875,7 +6804,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" s="6" customFormat="1">
       <c r="A110" s="21" t="s">
         <v>136</v>
       </c>
@@ -6898,7 +6827,7 @@
       <c r="R110" s="76"/>
       <c r="S110" s="81"/>
     </row>
-    <row r="111" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" s="6" customFormat="1">
       <c r="A111" s="21" t="s">
         <v>137</v>
       </c>
@@ -6925,12 +6854,12 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="112" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" s="40" customFormat="1">
       <c r="A112" s="21" t="s">
         <v>138</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C112" s="16">
         <v>2010</v>
@@ -6950,15 +6879,9 @@
       <c r="H112" s="27">
         <v>482180.3</v>
       </c>
-      <c r="I112" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J112" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="K112" s="16" t="s">
-        <v>189</v>
-      </c>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
       <c r="L112" s="16">
         <v>2010</v>
       </c>
@@ -6984,7 +6907,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="113" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" s="6" customFormat="1">
       <c r="A113" s="21" t="s">
         <v>139</v>
       </c>
@@ -7007,7 +6930,7 @@
       <c r="R113" s="76"/>
       <c r="S113" s="81"/>
     </row>
-    <row r="114" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" s="6" customFormat="1">
       <c r="A114" s="21" t="s">
         <v>140</v>
       </c>
@@ -7034,12 +6957,12 @@
         <v>102.4</v>
       </c>
     </row>
-    <row r="115" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" s="6" customFormat="1">
       <c r="A115" s="21" t="s">
         <v>141</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C115" s="16">
         <v>2000</v>
@@ -7087,18 +7010,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" s="6" customFormat="1">
       <c r="A116" s="44" t="s">
         <v>142</v>
       </c>
       <c r="B116" s="44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C116" s="47">
         <v>2011</v>
       </c>
       <c r="D116" s="47" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E116" s="73" t="s">
         <v>16</v>
@@ -7146,18 +7069,18 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="117" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" s="6" customFormat="1">
       <c r="A117" s="21" t="s">
         <v>143</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C117" s="16">
         <v>2005</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E117" s="17" t="s">
         <v>16</v>
@@ -7199,7 +7122,7 @@
         <v>93.2</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="15.75" customHeight="1">
       <c r="A118" s="29" t="s">
         <v>144</v>
       </c>
@@ -7226,12 +7149,12 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="119" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" s="40" customFormat="1">
       <c r="A119" s="57" t="s">
         <v>145</v>
       </c>
       <c r="B119" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C119" s="47">
         <v>2013</v>
@@ -7251,15 +7174,9 @@
       <c r="H119" s="66">
         <v>897142.4</v>
       </c>
-      <c r="I119" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="J119" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="K119" s="47" t="s">
-        <v>189</v>
-      </c>
+      <c r="I119" s="47"/>
+      <c r="J119" s="47"/>
+      <c r="K119" s="47"/>
       <c r="L119" s="61">
         <v>2013</v>
       </c>
@@ -7285,7 +7202,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19">
       <c r="A120" s="29" t="s">
         <v>146</v>
       </c>
@@ -7312,18 +7229,18 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="121" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" s="6" customFormat="1">
       <c r="A121" s="21" t="s">
         <v>147</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C121" s="16">
         <v>2006</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E121" s="17" t="s">
         <v>16</v>
@@ -7361,7 +7278,7 @@
       <c r="R121" s="77"/>
       <c r="S121" s="81"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19">
       <c r="A122" s="29" t="s">
         <v>148</v>
       </c>
@@ -7388,15 +7305,15 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19">
       <c r="A123" s="29" t="s">
         <v>149</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>33</v>
@@ -7423,7 +7340,7 @@
         <v>15.98</v>
       </c>
       <c r="L123" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M123" s="31" t="s">
         <v>16</v>
@@ -7432,7 +7349,7 @@
         <v>97.8</v>
       </c>
       <c r="O123" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P123" s="34" t="s">
         <v>17</v>
@@ -7447,7 +7364,7 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19">
       <c r="A124" s="29" t="s">
         <v>150</v>
       </c>
@@ -7474,12 +7391,12 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19">
       <c r="A125" s="53" t="s">
         <v>151</v>
       </c>
       <c r="B125" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C125" s="56">
         <v>2012</v>
@@ -7527,7 +7444,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19">
       <c r="A126" s="29" t="s">
         <v>152</v>
       </c>
@@ -7554,12 +7471,12 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="127" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" s="6" customFormat="1">
       <c r="A127" s="21" t="s">
         <v>153</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C127" s="16">
         <v>2008</v>
@@ -7609,12 +7526,12 @@
       <c r="R127" s="77"/>
       <c r="S127" s="81"/>
     </row>
-    <row r="128" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" s="6" customFormat="1">
       <c r="A128" s="21" t="s">
         <v>155</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C128" s="16">
         <v>2008</v>
@@ -7668,12 +7585,12 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="129" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" s="40" customFormat="1">
       <c r="A129" s="21" t="s">
         <v>156</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C129" s="16">
         <v>2010</v>
@@ -7693,15 +7610,9 @@
       <c r="H129" s="27">
         <v>6671.2610000000004</v>
       </c>
-      <c r="I129" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J129" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="K129" s="16" t="s">
-        <v>189</v>
-      </c>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
       <c r="L129" s="20">
         <v>2010</v>
       </c>
@@ -7727,12 +7638,12 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="130" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" s="6" customFormat="1">
       <c r="A130" s="21" t="s">
         <v>157</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C130" s="16">
         <v>2010</v>
@@ -7752,12 +7663,8 @@
       <c r="H130" s="27">
         <v>35368.021999999997</v>
       </c>
-      <c r="I130" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J130" s="18" t="s">
-        <v>189</v>
-      </c>
+      <c r="I130" s="16"/>
+      <c r="J130" s="18"/>
       <c r="K130" s="18"/>
       <c r="L130" s="20">
         <v>2010</v>
@@ -7784,18 +7691,18 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="131" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" s="6" customFormat="1">
       <c r="A131" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C131" s="16">
         <v>2006</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E131" s="17" t="s">
         <v>16</v>
@@ -7837,18 +7744,18 @@
         <v>106.7</v>
       </c>
     </row>
-    <row r="132" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" s="6" customFormat="1">
       <c r="A132" s="21" t="s">
         <v>159</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C132" s="16">
         <v>2005</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E132" s="17" t="s">
         <v>16</v>
@@ -7890,18 +7797,18 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="133" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" s="40" customFormat="1">
       <c r="A133" s="23" t="s">
         <v>160</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C133" s="24" t="s">
         <v>184</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E133" s="25" t="s">
         <v>16</v>
@@ -7915,15 +7822,9 @@
       <c r="H133" s="27">
         <v>3157442.4</v>
       </c>
-      <c r="I133" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J133" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="K133" s="16" t="s">
-        <v>189</v>
-      </c>
+      <c r="I133" s="16"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
       <c r="L133" s="24" t="s">
         <v>184</v>
       </c>
@@ -7949,18 +7850,18 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="134" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" s="6" customFormat="1">
       <c r="A134" s="23" t="s">
         <v>161</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C134" s="24" t="s">
         <v>82</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E134" s="25" t="s">
         <v>16</v>
@@ -7998,12 +7899,12 @@
       <c r="R134" s="77"/>
       <c r="S134" s="81"/>
     </row>
-    <row r="135" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" s="40" customFormat="1">
       <c r="A135" s="43" t="s">
         <v>162</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C135" s="24">
         <v>2010</v>
@@ -8023,15 +7924,9 @@
       <c r="H135" s="27">
         <v>616132.30000000005</v>
       </c>
-      <c r="I135" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J135" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="K135" s="16" t="s">
-        <v>189</v>
-      </c>
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
       <c r="L135" s="36">
         <v>2010</v>
       </c>
@@ -8057,7 +7952,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19">
       <c r="A136" s="29" t="s">
         <v>163</v>
       </c>
@@ -8079,7 +7974,7 @@
       <c r="Q136" s="68"/>
       <c r="R136" s="77"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19">
       <c r="A137" s="29" t="s">
         <v>164</v>
       </c>
@@ -8106,18 +8001,18 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="138" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" s="6" customFormat="1">
       <c r="A138" s="21" t="s">
         <v>165</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C138" s="16">
         <v>2006</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E138" s="17" t="s">
         <v>16</v>
@@ -8159,15 +8054,15 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="139" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" s="6" customFormat="1">
       <c r="A139" s="44" t="s">
         <v>166</v>
       </c>
       <c r="B139" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C139" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D139" s="47" t="s">
         <v>183</v>
@@ -8188,7 +8083,7 @@
       <c r="J139" s="48"/>
       <c r="K139" s="48"/>
       <c r="L139" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M139" s="46" t="s">
         <v>16</v>
@@ -8197,7 +8092,7 @@
         <v>94.2</v>
       </c>
       <c r="O139" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P139" s="51" t="s">
         <v>17</v>
@@ -8212,12 +8107,12 @@
         <v>101.7</v>
       </c>
     </row>
-    <row r="140" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" s="6" customFormat="1">
       <c r="A140" s="21" t="s">
         <v>167</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C140" s="16">
         <v>2006</v>
@@ -8271,7 +8166,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="141" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" s="6" customFormat="1">
       <c r="A141" s="21" t="s">
         <v>168</v>
       </c>
@@ -8298,7 +8193,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="142" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" s="6" customFormat="1">
       <c r="A142" s="21" t="s">
         <v>169</v>
       </c>
@@ -8325,12 +8220,12 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="143" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" s="40" customFormat="1">
       <c r="A143" s="21" t="s">
         <v>170</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C143" s="16">
         <v>2010</v>
@@ -8360,7 +8255,7 @@
         <v>1.5441196042833198</v>
       </c>
       <c r="L143" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M143" s="17" t="s">
         <v>16</v>
@@ -8369,7 +8264,7 @@
         <v>88.7</v>
       </c>
       <c r="O143" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P143" s="22" t="s">
         <v>17</v>
@@ -8384,12 +8279,12 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="144" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" s="6" customFormat="1">
       <c r="A144" s="44" t="s">
         <v>171</v>
       </c>
       <c r="B144" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C144" s="47">
         <v>2012</v>
@@ -8437,12 +8332,12 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="145" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" s="6" customFormat="1">
       <c r="A145" s="21" t="s">
         <v>172</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C145" s="16">
         <v>2009</v>
@@ -8496,18 +8391,18 @@
         <v>104.3</v>
       </c>
     </row>
-    <row r="146" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" s="6" customFormat="1">
       <c r="A146" s="21" t="s">
         <v>173</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C146" s="16">
         <v>2006</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E146" s="17" t="s">
         <v>16</v>
@@ -8549,7 +8444,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19">
       <c r="A147" s="29" t="s">
         <v>174</v>
       </c>
@@ -8576,18 +8471,18 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="148" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" s="6" customFormat="1">
       <c r="A148" s="21" t="s">
         <v>175</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C148" s="16">
         <v>2006</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E148" s="16" t="s">
         <v>37</v>
@@ -8635,12 +8530,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="149" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" s="6" customFormat="1">
       <c r="A149" s="44" t="s">
         <v>188</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C149" s="47">
         <v>2012</v>
@@ -8694,7 +8589,7 @@
         <v>101.2</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19">
       <c r="A150" s="29" t="s">
         <v>176</v>
       </c>
@@ -8716,7 +8611,7 @@
       <c r="Q150" s="32"/>
       <c r="R150" s="76"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19">
       <c r="A151" s="29" t="s">
         <v>177</v>
       </c>
@@ -8738,7 +8633,7 @@
       <c r="Q151" s="32"/>
       <c r="R151" s="76"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19">
       <c r="A152" s="29" t="s">
         <v>178</v>
       </c>
@@ -8760,12 +8655,12 @@
       <c r="Q152" s="32"/>
       <c r="R152" s="76"/>
     </row>
-    <row r="153" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" s="40" customFormat="1">
       <c r="A153" s="21" t="s">
         <v>179</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C153" s="16">
         <v>2010</v>
@@ -8819,12 +8714,12 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="154" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" s="6" customFormat="1">
       <c r="A154" s="21" t="s">
         <v>180</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C154" s="16">
         <v>2008</v>
@@ -8878,7 +8773,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19">
       <c r="A155" s="29" t="s">
         <v>181</v>
       </c>
@@ -8900,40 +8795,40 @@
       <c r="Q155" s="32"/>
       <c r="R155" s="76"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19">
       <c r="R156" s="78"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19">
       <c r="R157" s="78"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19">
       <c r="R158" s="78"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19">
       <c r="R159" s="78"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19">
       <c r="R160" s="78"/>
     </row>
-    <row r="161" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="18:18">
       <c r="R161" s="78"/>
     </row>
-    <row r="162" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="18:18">
       <c r="R162" s="78"/>
     </row>
-    <row r="163" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="18:18">
       <c r="R163" s="78"/>
     </row>
-    <row r="164" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="18:18">
       <c r="R164" s="78"/>
     </row>
-    <row r="165" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="18:18">
       <c r="R165" s="78"/>
     </row>
-    <row r="166" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="18:18">
       <c r="R166" s="78"/>
     </row>
-    <row r="167" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="18:18">
       <c r="R167" s="78"/>
     </row>
   </sheetData>
@@ -8951,15 +8846,6 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="19">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="R2:R3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="L1:N1"/>
@@ -8970,6 +8856,15 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>

--- a/source_data/Master_Data_Table_for_TDA2014_30_jan_2015.xlsx
+++ b/source_data/Master_Data_Table_for_TDA2014_30_jan_2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="0" windowWidth="28000" windowHeight="13620"/>
@@ -1285,6 +1285,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1303,9 +1327,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1314,27 +1335,6 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1695,8 +1695,8 @@
   <dimension ref="A1:T167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A155"/>
+      <pane ySplit="3" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1723,106 +1723,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="37"/>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
       <c r="L1" s="15"/>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="89" t="s">
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
       <c r="S1" s="79" t="s">
         <v>221</v>
       </c>
       <c r="T1" s="79"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="94"/>
       <c r="C2" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="89" t="s">
         <v>223</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="92" t="s">
+      <c r="K2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="90" t="s">
         <v>193</v>
       </c>
-      <c r="M2" s="93" t="s">
+      <c r="M2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="100" t="s">
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="94" t="s">
+      <c r="Q2" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="95" t="s">
+      <c r="R2" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="101" t="s">
+      <c r="S2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="97" t="s">
+      <c r="T2" s="87" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A3" s="102"/>
-      <c r="B3" s="86"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="37"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
       <c r="M3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1832,15 +1832,15 @@
       <c r="O3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="97"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:20" s="6" customFormat="1">
       <c r="A4" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>14</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="5" spans="1:20" s="13" customFormat="1">
       <c r="A5" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>15</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="6" spans="1:20" s="6" customFormat="1">
       <c r="A6" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>18</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="7" spans="1:20" s="6" customFormat="1">
       <c r="A7" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>19</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="8" spans="1:20" s="6" customFormat="1">
       <c r="A8" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>20</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9" spans="1:20" s="6" customFormat="1">
       <c r="A9" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>21</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="10" spans="1:20" s="6" customFormat="1">
       <c r="A10" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>22</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="11" spans="1:20" s="6" customFormat="1">
       <c r="A11" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>23</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="12" spans="1:20" s="6" customFormat="1">
       <c r="A12" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>25</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="13" spans="1:20" s="7" customFormat="1">
       <c r="A13" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>26</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="14" spans="1:20" s="6" customFormat="1">
       <c r="A14" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>29</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="15" spans="1:20" s="6" customFormat="1">
       <c r="A15" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>30</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="16" spans="1:20" s="40" customFormat="1">
       <c r="A16" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>32</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1">
       <c r="A17" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>34</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="18" spans="1:20" s="6" customFormat="1">
       <c r="A18" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>36</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="19" spans="1:20" s="6" customFormat="1">
       <c r="A19" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>38</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="20" spans="1:20" s="6" customFormat="1">
       <c r="A20" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>40</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="21" spans="1:20" s="6" customFormat="1">
       <c r="A21" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>41</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="22" spans="1:20" s="13" customFormat="1">
       <c r="A22" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>42</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>44</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>45</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="25" spans="1:20" s="40" customFormat="1">
       <c r="A25" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>46</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="26" spans="1:20" s="6" customFormat="1">
       <c r="A26" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>47</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="27" spans="1:20" s="6" customFormat="1">
       <c r="A27" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B27" s="44" t="s">
         <v>48</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="28" spans="1:20" s="40" customFormat="1">
       <c r="A28" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>51</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="29" spans="1:20" s="6" customFormat="1">
       <c r="A29" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>52</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="30" spans="1:20" s="6" customFormat="1">
       <c r="A30" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B30" s="44" t="s">
         <v>54</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="31" spans="1:20" s="6" customFormat="1">
       <c r="A31" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B31" s="44" t="s">
         <v>55</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="32" spans="1:20" s="6" customFormat="1">
       <c r="A32" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B32" s="44" t="s">
         <v>56</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="33" spans="1:20" s="6" customFormat="1">
       <c r="A33" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>57</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="34" spans="1:20" s="6" customFormat="1">
       <c r="A34" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>58</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="35" spans="1:20" s="40" customFormat="1">
       <c r="A35" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>59</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="36" spans="1:20" s="6" customFormat="1">
       <c r="A36" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B36" s="44" t="s">
         <v>60</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="37" spans="1:20" s="6" customFormat="1">
       <c r="A37" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B37" s="44" t="s">
         <v>61</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="38" spans="1:20" s="6" customFormat="1">
       <c r="A38" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>62</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="39" spans="1:20" s="6" customFormat="1">
       <c r="A39" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>63</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="40" spans="1:20" s="6" customFormat="1">
       <c r="A40" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B40" s="44" t="s">
         <v>64</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="41" spans="1:20" s="6" customFormat="1">
       <c r="A41" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B41" s="44" t="s">
         <v>65</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="42" spans="1:20" s="6" customFormat="1">
       <c r="A42" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>66</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="43" spans="1:20" s="6" customFormat="1">
       <c r="A43" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>67</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="44" spans="1:20" s="6" customFormat="1">
       <c r="A44" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>68</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="45" spans="1:20" s="40" customFormat="1">
       <c r="A45" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>214</v>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="46" spans="1:20" s="6" customFormat="1">
       <c r="A46" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>69</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="47" spans="1:20" s="40" customFormat="1">
       <c r="A47" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B47" s="43" t="s">
         <v>71</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="48" spans="1:20" s="6" customFormat="1">
       <c r="A48" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>73</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="49" spans="1:20" s="13" customFormat="1">
       <c r="A49" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>74</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>76</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B51" s="29" t="s">
         <v>77</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>190</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>78</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>79</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B55" s="53" t="s">
         <v>80</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="56" spans="1:20" s="6" customFormat="1">
       <c r="A56" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>81</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="57" spans="1:20" s="6" customFormat="1">
       <c r="A57" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>83</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="58" spans="1:20" s="6" customFormat="1">
       <c r="A58" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>84</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="59" spans="1:20" s="6" customFormat="1">
       <c r="A59" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>85</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="60" spans="1:20" s="6" customFormat="1">
       <c r="A60" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B60" s="21" t="s">
         <v>86</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="61" spans="1:20" s="6" customFormat="1">
       <c r="A61" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B61" s="44" t="s">
         <v>87</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="62" spans="1:20" s="40" customFormat="1">
       <c r="A62" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B62" s="44" t="s">
         <v>88</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="63" spans="1:20" s="6" customFormat="1">
       <c r="A63" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B63" s="21" t="s">
         <v>89</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="64" spans="1:20" s="6" customFormat="1">
       <c r="A64" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B64" s="21" t="s">
         <v>90</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="65" spans="1:20" s="6" customFormat="1">
       <c r="A65" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B65" s="44" t="s">
         <v>92</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="66" spans="1:20" s="6" customFormat="1">
       <c r="A66" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B66" s="21" t="s">
         <v>93</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="67" spans="1:20" s="6" customFormat="1">
       <c r="A67" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B67" s="44" t="s">
         <v>94</v>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="68" spans="1:20" s="6" customFormat="1">
       <c r="A68" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B68" s="44" t="s">
         <v>95</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="69" spans="1:20" s="6" customFormat="1">
       <c r="A69" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>96</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="70" spans="1:20" s="40" customFormat="1">
       <c r="A70" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>97</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="71" spans="1:20" s="6" customFormat="1">
       <c r="A71" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B71" s="44" t="s">
         <v>98</v>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="72" spans="1:20" s="6" customFormat="1">
       <c r="A72" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>99</v>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="73" spans="1:20" s="6" customFormat="1">
       <c r="A73" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>100</v>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="74" spans="1:20" s="6" customFormat="1">
       <c r="A74" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>101</v>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="75" spans="1:20" s="6" customFormat="1">
       <c r="A75" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B75" s="21" t="s">
         <v>102</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="76" spans="1:20" s="6" customFormat="1">
       <c r="A76" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>103</v>
@@ -5428,7 +5428,7 @@
     </row>
     <row r="77" spans="1:20" s="6" customFormat="1">
       <c r="A77" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>104</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="78" spans="1:20" s="40" customFormat="1">
       <c r="A78" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>217</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="79" spans="1:20" s="6" customFormat="1">
       <c r="A79" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B79" s="21" t="s">
         <v>105</v>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="80" spans="1:20" s="6" customFormat="1">
       <c r="A80" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>106</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="81" spans="1:20" s="6" customFormat="1">
       <c r="A81" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B81" s="21" t="s">
         <v>108</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="82" spans="1:20" s="6" customFormat="1">
       <c r="A82" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B82" s="44" t="s">
         <v>109</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="83" spans="1:20" s="6" customFormat="1">
       <c r="A83" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>110</v>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="84" spans="1:20" s="40" customFormat="1">
       <c r="A84" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B84" s="21" t="s">
         <v>111</v>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="85" spans="1:20" s="6" customFormat="1">
       <c r="A85" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B85" s="21" t="s">
         <v>112</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="86" spans="1:20" s="6" customFormat="1">
       <c r="A86" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B86" s="44" t="s">
         <v>113</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="87" spans="1:20" s="6" customFormat="1">
       <c r="A87" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>114</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="88" spans="1:20" s="6" customFormat="1">
       <c r="A88" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B88" s="21" t="s">
         <v>115</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="89" spans="1:20" s="13" customFormat="1">
       <c r="A89" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B89" s="21" t="s">
         <v>116</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="90" spans="1:20" s="6" customFormat="1">
       <c r="A90" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B90" s="21" t="s">
         <v>187</v>
@@ -6190,7 +6190,7 @@
     </row>
     <row r="91" spans="1:20" s="40" customFormat="1">
       <c r="A91" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B91" s="21" t="s">
         <v>117</v>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="92" spans="1:20" s="6" customFormat="1">
       <c r="A92" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B92" s="21" t="s">
         <v>118</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="93" spans="1:20" s="6" customFormat="1">
       <c r="A93" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B93" s="21" t="s">
         <v>119</v>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="94" spans="1:20" s="6" customFormat="1">
       <c r="A94" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B94" s="21" t="s">
         <v>120</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="95" spans="1:20" s="6" customFormat="1">
       <c r="A95" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B95" s="21" t="s">
         <v>121</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="96" spans="1:20" s="6" customFormat="1">
       <c r="A96" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B96" s="21" t="s">
         <v>122</v>
@@ -6480,7 +6480,7 @@
     </row>
     <row r="97" spans="1:20" s="40" customFormat="1">
       <c r="A97" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B97" s="21" t="s">
         <v>123</v>
@@ -6542,7 +6542,7 @@
     </row>
     <row r="98" spans="1:20" s="6" customFormat="1">
       <c r="A98" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B98" s="44" t="s">
         <v>124</v>
@@ -6604,7 +6604,7 @@
     </row>
     <row r="99" spans="1:20" s="6" customFormat="1">
       <c r="A99" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B99" s="44" t="s">
         <v>125</v>
@@ -6660,7 +6660,7 @@
     </row>
     <row r="100" spans="1:20" s="40" customFormat="1">
       <c r="A100" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B100" s="21" t="s">
         <v>126</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="101" spans="1:20" s="6" customFormat="1">
       <c r="A101" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B101" s="21" t="s">
         <v>127</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="102" spans="1:20" s="6" customFormat="1">
       <c r="A102" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B102" s="21" t="s">
         <v>128</v>
@@ -6772,7 +6772,7 @@
     </row>
     <row r="103" spans="1:20" s="6" customFormat="1">
       <c r="A103" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B103" s="21" t="s">
         <v>129</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="104" spans="1:20" s="6" customFormat="1">
       <c r="A104" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B104" s="21" t="s">
         <v>130</v>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="105" spans="1:20" s="40" customFormat="1">
       <c r="A105" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B105" s="44" t="s">
         <v>131</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="106" spans="1:20" s="6" customFormat="1">
       <c r="A106" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B106" s="21" t="s">
         <v>132</v>
@@ -6956,7 +6956,7 @@
     </row>
     <row r="107" spans="1:20" s="6" customFormat="1">
       <c r="A107" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B107" s="21" t="s">
         <v>133</v>
@@ -7018,7 +7018,7 @@
     </row>
     <row r="108" spans="1:20" s="40" customFormat="1">
       <c r="A108" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B108" s="21" t="s">
         <v>134</v>
@@ -7074,7 +7074,7 @@
     </row>
     <row r="109" spans="1:20" s="6" customFormat="1">
       <c r="A109" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B109" s="44" t="s">
         <v>135</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="110" spans="1:20" s="6" customFormat="1">
       <c r="A110" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B110" s="21" t="s">
         <v>136</v>
@@ -7162,7 +7162,7 @@
     </row>
     <row r="111" spans="1:20" s="6" customFormat="1">
       <c r="A111" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B111" s="21" t="s">
         <v>137</v>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="112" spans="1:20" s="40" customFormat="1">
       <c r="A112" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B112" s="21" t="s">
         <v>138</v>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="113" spans="1:20" s="6" customFormat="1">
       <c r="A113" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B113" s="21" t="s">
         <v>139</v>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="114" spans="1:20" s="6" customFormat="1">
       <c r="A114" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B114" s="21" t="s">
         <v>140</v>
@@ -7304,7 +7304,7 @@
     </row>
     <row r="115" spans="1:20" s="6" customFormat="1">
       <c r="A115" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B115" s="21" t="s">
         <v>141</v>
@@ -7360,7 +7360,7 @@
     </row>
     <row r="116" spans="1:20" s="6" customFormat="1">
       <c r="A116" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B116" s="44" t="s">
         <v>142</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="117" spans="1:20" s="6" customFormat="1">
       <c r="A117" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B117" s="21" t="s">
         <v>143</v>
@@ -7478,7 +7478,7 @@
     </row>
     <row r="118" spans="1:20" ht="15.75" customHeight="1">
       <c r="A118" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B118" s="29" t="s">
         <v>144</v>
@@ -7508,7 +7508,7 @@
     </row>
     <row r="119" spans="1:20" s="40" customFormat="1">
       <c r="A119" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B119" s="57" t="s">
         <v>145</v>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B120" s="29" t="s">
         <v>146</v>
@@ -7594,7 +7594,7 @@
     </row>
     <row r="121" spans="1:20" s="6" customFormat="1">
       <c r="A121" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B121" s="21" t="s">
         <v>147</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B122" s="29" t="s">
         <v>148</v>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B123" s="29" t="s">
         <v>149</v>
@@ -7738,7 +7738,7 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B124" s="29" t="s">
         <v>150</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B125" s="53" t="s">
         <v>151</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B126" s="29" t="s">
         <v>152</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="127" spans="1:20" s="6" customFormat="1">
       <c r="A127" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B127" s="21" t="s">
         <v>153</v>
@@ -7912,7 +7912,7 @@
     </row>
     <row r="128" spans="1:20" s="6" customFormat="1">
       <c r="A128" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B128" s="21" t="s">
         <v>155</v>
@@ -7974,7 +7974,7 @@
     </row>
     <row r="129" spans="1:20" s="40" customFormat="1">
       <c r="A129" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B129" s="21" t="s">
         <v>156</v>
@@ -8030,7 +8030,7 @@
     </row>
     <row r="130" spans="1:20" s="6" customFormat="1">
       <c r="A130" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B130" s="21" t="s">
         <v>157</v>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="131" spans="1:20" s="6" customFormat="1">
       <c r="A131" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B131" s="21" t="s">
         <v>158</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="132" spans="1:20" s="6" customFormat="1">
       <c r="A132" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B132" s="21" t="s">
         <v>159</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="133" spans="1:20" s="40" customFormat="1">
       <c r="A133" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>160</v>
@@ -8254,7 +8254,7 @@
     </row>
     <row r="134" spans="1:20" s="6" customFormat="1">
       <c r="A134" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B134" s="23" t="s">
         <v>161</v>
@@ -8306,7 +8306,7 @@
     </row>
     <row r="135" spans="1:20" s="40" customFormat="1">
       <c r="A135" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B135" s="43" t="s">
         <v>162</v>
@@ -8362,7 +8362,7 @@
     </row>
     <row r="136" spans="1:20">
       <c r="A136" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B136" s="29" t="s">
         <v>163</v>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B137" s="29" t="s">
         <v>164</v>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="138" spans="1:20" s="6" customFormat="1">
       <c r="A138" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B138" s="21" t="s">
         <v>165</v>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="139" spans="1:20" s="6" customFormat="1">
       <c r="A139" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B139" s="44" t="s">
         <v>166</v>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="140" spans="1:20" s="6" customFormat="1">
       <c r="A140" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B140" s="21" t="s">
         <v>167</v>
@@ -8591,7 +8591,7 @@
     </row>
     <row r="141" spans="1:20" s="6" customFormat="1">
       <c r="A141" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B141" s="21" t="s">
         <v>168</v>
@@ -8621,7 +8621,7 @@
     </row>
     <row r="142" spans="1:20" s="6" customFormat="1">
       <c r="A142" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B142" s="21" t="s">
         <v>169</v>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="143" spans="1:20" s="40" customFormat="1">
       <c r="A143" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B143" s="21" t="s">
         <v>170</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="144" spans="1:20" s="6" customFormat="1">
       <c r="A144" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B144" s="44" t="s">
         <v>171</v>
@@ -8769,7 +8769,7 @@
     </row>
     <row r="145" spans="1:20" s="6" customFormat="1">
       <c r="A145" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B145" s="21" t="s">
         <v>172</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="146" spans="1:20" s="6" customFormat="1">
       <c r="A146" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B146" s="21" t="s">
         <v>173</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="147" spans="1:20">
       <c r="A147" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B147" s="29" t="s">
         <v>174</v>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="148" spans="1:20" s="6" customFormat="1">
       <c r="A148" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B148" s="21" t="s">
         <v>175</v>
@@ -8979,7 +8979,7 @@
     </row>
     <row r="149" spans="1:20" s="6" customFormat="1">
       <c r="A149" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B149" s="44" t="s">
         <v>188</v>
@@ -9041,7 +9041,7 @@
     </row>
     <row r="150" spans="1:20">
       <c r="A150" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B150" s="29" t="s">
         <v>176</v>
@@ -9066,7 +9066,7 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B151" s="29" t="s">
         <v>177</v>
@@ -9091,7 +9091,7 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B152" s="29" t="s">
         <v>178</v>
@@ -9116,7 +9116,7 @@
     </row>
     <row r="153" spans="1:20" s="40" customFormat="1">
       <c r="A153" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B153" s="21" t="s">
         <v>179</v>
@@ -9178,7 +9178,7 @@
     </row>
     <row r="154" spans="1:20" s="6" customFormat="1">
       <c r="A154" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B154" s="21" t="s">
         <v>180</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="155" spans="1:20">
       <c r="A155" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B155" s="29" t="s">
         <v>181</v>
@@ -9314,6 +9314,10 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="D2:D3"/>
@@ -9330,10 +9334,6 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
